--- a/Assignment3/TestCase-Assignment3-QuynhAnh-Notes.xlsx
+++ b/Assignment3/TestCase-Assignment3-QuynhAnh-Notes.xlsx
@@ -222,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="369">
   <si>
     <r>
       <t xml:space="preserve">Security Classification: </t>
@@ -1559,6 +1559,15 @@
   </si>
   <si>
     <t>LẬP FILE Q&amp;A chung để cả nhóm xem, coi như là extent requirement, thống nhất để mentor review và confirm để bảo vệ chính mình</t>
+  </si>
+  <si>
+    <t>Phải làm rõ requirement để giải quyết điều kiện and/or</t>
+  </si>
+  <si>
+    <t>Nếu có nhiều expected result thì phải đánh số tương ứng với step</t>
+  </si>
+  <si>
+    <t>Nếu sử dụng list data thì phải work around cả database =&gt; Lý tưởng là control dc bộ test data của mình nhưng trong trường hợp k control dc thì phải biết mình cần làm gì</t>
   </si>
 </sst>
 </file>
@@ -3294,47 +3303,86 @@
     <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3342,6 +3390,15 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="43" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3351,58 +3408,10 @@
     <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5223,7 +5232,7 @@
   <dimension ref="A1:X164"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5238,10 +5247,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="14.25">
-      <c r="A1" s="203"/>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
+      <c r="A1" s="214"/>
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -5250,13 +5259,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="204" t="s">
+      <c r="A2" s="215" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="204"/>
-      <c r="C2" s="204"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="215"/>
+      <c r="B2" s="215"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="210"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -5265,9 +5274,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="216"/>
-      <c r="D3" s="216"/>
-      <c r="E3" s="215"/>
+      <c r="C3" s="211"/>
+      <c r="D3" s="211"/>
+      <c r="E3" s="210"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -5278,11 +5287,11 @@
       <c r="A4" s="135" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="206" t="s">
+      <c r="B4" s="212" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="206"/>
-      <c r="D4" s="206"/>
+      <c r="C4" s="212"/>
+      <c r="D4" s="212"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -5296,11 +5305,11 @@
       <c r="A5" s="135" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="205" t="s">
+      <c r="B5" s="213" t="s">
         <v>219</v>
       </c>
-      <c r="C5" s="206"/>
-      <c r="D5" s="206"/>
+      <c r="C5" s="212"/>
+      <c r="D5" s="212"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -5314,11 +5323,11 @@
       <c r="A6" s="135" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="205" t="s">
+      <c r="B6" s="213" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="206"/>
-      <c r="D6" s="206"/>
+      <c r="C6" s="212"/>
+      <c r="D6" s="212"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -5329,11 +5338,11 @@
       <c r="A7" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="206" t="s">
+      <c r="B7" s="212" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="206"/>
-      <c r="D7" s="206"/>
+      <c r="C7" s="212"/>
+      <c r="D7" s="212"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -5345,9 +5354,9 @@
       <c r="A8" s="135" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="207"/>
-      <c r="C8" s="207"/>
-      <c r="D8" s="207"/>
+      <c r="B8" s="216"/>
+      <c r="C8" s="216"/>
+      <c r="D8" s="216"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -5490,11 +5499,11 @@
       <c r="C16" s="49"/>
       <c r="D16" s="50"/>
       <c r="E16" s="55"/>
-      <c r="F16" s="208" t="s">
+      <c r="F16" s="203" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="208"/>
-      <c r="H16" s="208"/>
+      <c r="G16" s="203"/>
+      <c r="H16" s="203"/>
       <c r="I16" s="56"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="38.25">
@@ -5528,11 +5537,11 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="63"/>
-      <c r="B18" s="209" t="s">
+      <c r="B18" s="204" t="s">
         <v>200</v>
       </c>
-      <c r="C18" s="213"/>
-      <c r="D18" s="214"/>
+      <c r="C18" s="208"/>
+      <c r="D18" s="209"/>
       <c r="E18" s="63"/>
       <c r="F18" s="64"/>
       <c r="G18" s="64"/>
@@ -5541,11 +5550,11 @@
     </row>
     <row r="19" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A19" s="63"/>
-      <c r="B19" s="209" t="s">
+      <c r="B19" s="204" t="s">
         <v>201</v>
       </c>
-      <c r="C19" s="210"/>
-      <c r="D19" s="211"/>
+      <c r="C19" s="205"/>
+      <c r="D19" s="206"/>
       <c r="E19" s="63"/>
       <c r="F19" s="64"/>
       <c r="G19" s="64"/>
@@ -5815,7 +5824,9 @@
       <c r="D32" s="175" t="s">
         <v>247</v>
       </c>
-      <c r="E32" s="53"/>
+      <c r="E32" s="53" t="s">
+        <v>366</v>
+      </c>
       <c r="F32" s="51"/>
       <c r="G32" s="51"/>
       <c r="H32" s="51"/>
@@ -5835,7 +5846,9 @@
       <c r="D33" s="175" t="s">
         <v>248</v>
       </c>
-      <c r="E33" s="53"/>
+      <c r="E33" s="53" t="s">
+        <v>367</v>
+      </c>
       <c r="F33" s="51"/>
       <c r="G33" s="51"/>
       <c r="H33" s="51"/>
@@ -5855,7 +5868,9 @@
       <c r="D34" s="175" t="s">
         <v>249</v>
       </c>
-      <c r="E34" s="53"/>
+      <c r="E34" s="53" t="s">
+        <v>368</v>
+      </c>
       <c r="F34" s="51"/>
       <c r="G34" s="51"/>
       <c r="H34" s="51"/>
@@ -7436,9 +7451,9 @@
     </row>
     <row r="134" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A134" s="73"/>
-      <c r="B134" s="212"/>
-      <c r="C134" s="213"/>
-      <c r="D134" s="214"/>
+      <c r="B134" s="207"/>
+      <c r="C134" s="208"/>
+      <c r="D134" s="209"/>
       <c r="E134" s="65"/>
       <c r="F134" s="62"/>
       <c r="G134" s="62"/>
@@ -7850,6 +7865,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B134:D134"/>
@@ -7858,11 +7878,6 @@
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B18:D18"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17"/>
@@ -7919,13 +7934,13 @@
     </row>
     <row r="2" spans="1:12" s="80" customFormat="1" ht="26.25">
       <c r="A2" s="79"/>
-      <c r="C2" s="219" t="s">
+      <c r="C2" s="235" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="219"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="219"/>
-      <c r="G2" s="219"/>
+      <c r="D2" s="235"/>
+      <c r="E2" s="235"/>
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
       <c r="H2" s="81" t="s">
         <v>115</v>
       </c>
@@ -7936,15 +7951,15 @@
     </row>
     <row r="3" spans="1:12" s="80" customFormat="1" ht="23.25">
       <c r="A3" s="79"/>
-      <c r="C3" s="220" t="s">
+      <c r="C3" s="236" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="220"/>
+      <c r="D3" s="236"/>
       <c r="E3" s="152"/>
-      <c r="F3" s="221" t="s">
+      <c r="F3" s="237" t="s">
         <v>117</v>
       </c>
-      <c r="G3" s="221"/>
+      <c r="G3" s="237"/>
       <c r="H3" s="82"/>
       <c r="I3" s="82"/>
       <c r="J3" s="83"/>
@@ -7969,10 +7984,10 @@
       <c r="L5" s="88"/>
     </row>
     <row r="6" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B6" s="222" t="s">
+      <c r="B6" s="219" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="222"/>
+      <c r="C6" s="219"/>
       <c r="D6" s="90"/>
       <c r="E6" s="90"/>
       <c r="F6" s="90"/>
@@ -8141,11 +8156,11 @@
       <c r="G13" s="94"/>
     </row>
     <row r="14" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B14" s="222" t="s">
+      <c r="B14" s="219" t="s">
         <v>148</v>
       </c>
-      <c r="C14" s="222"/>
-      <c r="D14" s="222"/>
+      <c r="C14" s="219"/>
+      <c r="D14" s="219"/>
       <c r="E14" s="90"/>
       <c r="F14" s="90"/>
       <c r="G14" s="91"/>
@@ -8321,11 +8336,11 @@
       <c r="G22" s="94"/>
     </row>
     <row r="23" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B23" s="222" t="s">
+      <c r="B23" s="219" t="s">
         <v>158</v>
       </c>
-      <c r="C23" s="222"/>
-      <c r="D23" s="222"/>
+      <c r="C23" s="219"/>
+      <c r="D23" s="219"/>
       <c r="E23" s="90"/>
       <c r="F23" s="90"/>
       <c r="G23" s="91"/>
@@ -8371,10 +8386,10 @@
       <c r="F26" s="155" t="s">
         <v>165</v>
       </c>
-      <c r="G26" s="223" t="s">
+      <c r="G26" s="238" t="s">
         <v>110</v>
       </c>
-      <c r="H26" s="224"/>
+      <c r="H26" s="239"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="96">
@@ -8399,8 +8414,8 @@
         <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Critical*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G27" s="217"/>
-      <c r="H27" s="218"/>
+      <c r="G27" s="230"/>
+      <c r="H27" s="231"/>
     </row>
     <row r="28" spans="1:12" ht="20.25" customHeight="1">
       <c r="A28" s="96">
@@ -8425,8 +8440,8 @@
         <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Major*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G28" s="217"/>
-      <c r="H28" s="218"/>
+      <c r="G28" s="230"/>
+      <c r="H28" s="231"/>
     </row>
     <row r="29" spans="1:12" ht="20.25" customHeight="1">
       <c r="A29" s="96">
@@ -8451,8 +8466,8 @@
         <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Normal*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="217"/>
-      <c r="H29" s="218"/>
+      <c r="G29" s="230"/>
+      <c r="H29" s="231"/>
     </row>
     <row r="30" spans="1:12" ht="20.25" customHeight="1">
       <c r="A30" s="96">
@@ -8477,8 +8492,8 @@
         <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Minor*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G30" s="217"/>
-      <c r="H30" s="218"/>
+      <c r="G30" s="230"/>
+      <c r="H30" s="231"/>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1">
       <c r="A31" s="96"/>
@@ -8499,8 +8514,8 @@
         <f>SUM(F27:F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G31" s="217"/>
-      <c r="H31" s="218"/>
+      <c r="G31" s="230"/>
+      <c r="H31" s="231"/>
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1">
       <c r="A32" s="102"/>
@@ -8538,7 +8553,7 @@
       <c r="E34" s="155" t="s">
         <v>124</v>
       </c>
-      <c r="F34" s="225" t="s">
+      <c r="F34" s="224" t="s">
         <v>127</v>
       </c>
       <c r="G34" s="226"/>
@@ -8557,8 +8572,8 @@
       <c r="E35" s="122" t="s">
         <v>132</v>
       </c>
-      <c r="F35" s="228"/>
-      <c r="G35" s="229"/>
+      <c r="F35" s="233"/>
+      <c r="G35" s="234"/>
       <c r="H35" s="120"/>
       <c r="I35" s="120"/>
       <c r="J35" s="120"/>
@@ -8581,8 +8596,8 @@
       <c r="E36" s="100" t="s">
         <v>138</v>
       </c>
-      <c r="F36" s="217"/>
-      <c r="G36" s="218"/>
+      <c r="F36" s="230"/>
+      <c r="G36" s="231"/>
     </row>
     <row r="37" spans="1:12" ht="20.25" customHeight="1">
       <c r="A37" s="96">
@@ -8600,8 +8615,8 @@
       <c r="E37" s="100" t="s">
         <v>138</v>
       </c>
-      <c r="F37" s="217"/>
-      <c r="G37" s="218"/>
+      <c r="F37" s="230"/>
+      <c r="G37" s="231"/>
     </row>
     <row r="38" spans="1:12" ht="20.25" customHeight="1">
       <c r="A38" s="102"/>
@@ -8614,10 +8629,10 @@
       <c r="H38" s="104"/>
     </row>
     <row r="39" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B39" s="222" t="s">
+      <c r="B39" s="219" t="s">
         <v>179</v>
       </c>
-      <c r="C39" s="222"/>
+      <c r="C39" s="219"/>
       <c r="D39" s="90"/>
       <c r="E39" s="90"/>
       <c r="F39" s="90"/>
@@ -8641,15 +8656,15 @@
       <c r="B41" s="155" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="227" t="s">
+      <c r="C41" s="232" t="s">
         <v>181</v>
       </c>
-      <c r="D41" s="227"/>
-      <c r="E41" s="227" t="s">
+      <c r="D41" s="232"/>
+      <c r="E41" s="232" t="s">
         <v>182</v>
       </c>
-      <c r="F41" s="227"/>
-      <c r="G41" s="227"/>
+      <c r="F41" s="232"/>
+      <c r="G41" s="232"/>
       <c r="H41" s="95" t="s">
         <v>183</v>
       </c>
@@ -8661,15 +8676,15 @@
       <c r="B42" s="156" t="s">
         <v>184</v>
       </c>
-      <c r="C42" s="230" t="s">
+      <c r="C42" s="229" t="s">
         <v>185</v>
       </c>
-      <c r="D42" s="230"/>
-      <c r="E42" s="230" t="s">
+      <c r="D42" s="229"/>
+      <c r="E42" s="229" t="s">
         <v>186</v>
       </c>
-      <c r="F42" s="230"/>
-      <c r="G42" s="230"/>
+      <c r="F42" s="229"/>
+      <c r="G42" s="229"/>
       <c r="H42" s="105"/>
     </row>
     <row r="43" spans="1:12" ht="34.5" customHeight="1">
@@ -8679,15 +8694,15 @@
       <c r="B43" s="156" t="s">
         <v>184</v>
       </c>
-      <c r="C43" s="230" t="s">
+      <c r="C43" s="229" t="s">
         <v>185</v>
       </c>
-      <c r="D43" s="230"/>
-      <c r="E43" s="230" t="s">
+      <c r="D43" s="229"/>
+      <c r="E43" s="229" t="s">
         <v>186</v>
       </c>
-      <c r="F43" s="230"/>
-      <c r="G43" s="230"/>
+      <c r="F43" s="229"/>
+      <c r="G43" s="229"/>
       <c r="H43" s="105"/>
     </row>
     <row r="44" spans="1:12" ht="34.5" customHeight="1">
@@ -8697,15 +8712,15 @@
       <c r="B44" s="156" t="s">
         <v>184</v>
       </c>
-      <c r="C44" s="230" t="s">
+      <c r="C44" s="229" t="s">
         <v>185</v>
       </c>
-      <c r="D44" s="230"/>
-      <c r="E44" s="230" t="s">
+      <c r="D44" s="229"/>
+      <c r="E44" s="229" t="s">
         <v>186</v>
       </c>
-      <c r="F44" s="230"/>
-      <c r="G44" s="230"/>
+      <c r="F44" s="229"/>
+      <c r="G44" s="229"/>
       <c r="H44" s="105"/>
     </row>
     <row r="45" spans="1:12">
@@ -8717,10 +8732,10 @@
       <c r="G45" s="94"/>
     </row>
     <row r="46" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B46" s="222" t="s">
+      <c r="B46" s="219" t="s">
         <v>187</v>
       </c>
-      <c r="C46" s="222"/>
+      <c r="C46" s="219"/>
       <c r="D46" s="90"/>
       <c r="E46" s="90"/>
       <c r="F46" s="90"/>
@@ -8738,25 +8753,25 @@
       <c r="G47" s="94"/>
     </row>
     <row r="48" spans="1:12" s="109" customFormat="1" ht="21" customHeight="1">
-      <c r="A48" s="233" t="s">
+      <c r="A48" s="220" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="235" t="s">
+      <c r="B48" s="222" t="s">
         <v>189</v>
       </c>
-      <c r="C48" s="225" t="s">
+      <c r="C48" s="224" t="s">
         <v>190</v>
       </c>
-      <c r="D48" s="237"/>
-      <c r="E48" s="237"/>
+      <c r="D48" s="225"/>
+      <c r="E48" s="225"/>
       <c r="F48" s="226"/>
-      <c r="G48" s="238" t="s">
+      <c r="G48" s="227" t="s">
         <v>157</v>
       </c>
-      <c r="H48" s="238" t="s">
+      <c r="H48" s="227" t="s">
         <v>189</v>
       </c>
-      <c r="I48" s="231" t="s">
+      <c r="I48" s="217" t="s">
         <v>191</v>
       </c>
       <c r="J48" s="108"/>
@@ -8764,8 +8779,8 @@
       <c r="L48" s="108"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="234"/>
-      <c r="B49" s="236"/>
+      <c r="A49" s="221"/>
+      <c r="B49" s="223"/>
       <c r="C49" s="110" t="s">
         <v>166</v>
       </c>
@@ -8778,13 +8793,13 @@
       <c r="F49" s="111" t="s">
         <v>169</v>
       </c>
-      <c r="G49" s="239"/>
-      <c r="H49" s="239"/>
-      <c r="I49" s="232"/>
+      <c r="G49" s="228"/>
+      <c r="H49" s="228"/>
+      <c r="I49" s="218"/>
     </row>
     <row r="50" spans="1:9" ht="38.25">
-      <c r="A50" s="234"/>
-      <c r="B50" s="236"/>
+      <c r="A50" s="221"/>
+      <c r="B50" s="223"/>
       <c r="C50" s="124" t="s">
         <v>192</v>
       </c>
@@ -8896,26 +8911,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="F35:G35"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:D3"/>
@@ -8928,6 +8923,26 @@
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
   </mergeCells>
   <conditionalFormatting sqref="H51">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
@@ -8971,6 +8986,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008DD9373D9A24F64F89F14F461305A106" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="edefd2bea9a69e65a3918d4b9d850884">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cabca498-5e2a-459c-ade0-601c6a98c846" xmlns:ns3="044e8ed5-b60c-40cd-b477-04c240ccf9c3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cdcf90a8e7cb27405451b504492cec2" ns2:_="" ns3:_="">
     <xsd:import namespace="cabca498-5e2a-459c-ade0-601c6a98c846"/>
@@ -9135,15 +9159,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E3E4FA-795A-4742-A021-9CDC3210C50B}">
   <ds:schemaRefs>
@@ -9162,6 +9177,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7729ACD-7A20-4344-BFA5-B224A8419F45}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9178,12 +9201,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>